--- a/docentes/González Sánchez Rene Aurelio - Estadisticos 20202.xlsx
+++ b/docentes/González Sánchez Rene Aurelio - Estadisticos 20202.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="45">
   <si>
     <t>Mat</t>
   </si>
@@ -82,12 +82,12 @@
     <t>Reprobadas</t>
   </si>
   <si>
-    <t>GARCIA</t>
-  </si>
-  <si>
     <t>PALACIOS</t>
   </si>
   <si>
+    <t>CRUZ</t>
+  </si>
+  <si>
     <t>GONZALEZ</t>
   </si>
   <si>
@@ -97,19 +97,19 @@
     <t>SARMIENTO</t>
   </si>
   <si>
+    <t>ALCANTARA</t>
+  </si>
+  <si>
+    <t>HERNANDEZ</t>
+  </si>
+  <si>
+    <t>MIXCOHUA</t>
+  </si>
+  <si>
     <t>MORALES</t>
   </si>
   <si>
-    <t>ALCANTARA</t>
-  </si>
-  <si>
-    <t>HERNANDEZ</t>
-  </si>
-  <si>
-    <t>MIXCOHUA</t>
-  </si>
-  <si>
-    <t>LINARES</t>
+    <t>PALMA</t>
   </si>
   <si>
     <t>SERRANO</t>
@@ -118,9 +118,6 @@
     <t>ANTEMATE</t>
   </si>
   <si>
-    <t>CHIPAHUA</t>
-  </si>
-  <si>
     <t>LEYVA</t>
   </si>
   <si>
@@ -130,12 +127,12 @@
     <t>IXMATLAHUA</t>
   </si>
   <si>
-    <t>ANDRES</t>
-  </si>
-  <si>
     <t>CATHERIN DALAY</t>
   </si>
   <si>
+    <t>VALERIA</t>
+  </si>
+  <si>
     <t>CRISTIAN</t>
   </si>
   <si>
@@ -146,9 +143,6 @@
   </si>
   <si>
     <t>ROMARIO ALDAIR</t>
-  </si>
-  <si>
-    <t>KARLA MICHEL</t>
   </si>
   <si>
     <t>MOISES EFRAIN</t>
@@ -665,16 +659,16 @@
         <v>33</v>
       </c>
       <c r="D6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E6">
         <v>11</v>
       </c>
       <c r="F6">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G6">
-        <v>57.58</v>
+        <v>66.67</v>
       </c>
       <c r="H6">
         <v>7.2</v>
@@ -863,19 +857,19 @@
         <v>33</v>
       </c>
       <c r="D6">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G6">
-        <v>63.64</v>
+        <v>90.91</v>
       </c>
       <c r="H6">
-        <v>7.9</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1061,19 +1055,19 @@
         <v>33</v>
       </c>
       <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
         <v>3</v>
       </c>
-      <c r="E6">
-        <v>7</v>
-      </c>
       <c r="F6">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G6">
-        <v>69.7</v>
+        <v>90.91</v>
       </c>
       <c r="H6">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1109,7 +1103,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1144,22 +1138,22 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>19330051920278</v>
+        <v>19330051920135</v>
       </c>
       <c r="B2" t="s">
         <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -1167,22 +1161,22 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>19330051920135</v>
+        <v>19330051920251</v>
       </c>
       <c r="B3" t="s">
         <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -1199,7 +1193,7 @@
         <v>31</v>
       </c>
       <c r="D4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E4" t="s">
         <v>8</v>
@@ -1219,10 +1213,10 @@
         <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
@@ -1245,7 +1239,7 @@
         <v>32</v>
       </c>
       <c r="D6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E6" t="s">
         <v>8</v>
@@ -1265,10 +1259,10 @@
         <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E7" t="s">
         <v>8</v>
@@ -1282,7 +1276,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>19330051920289</v>
+        <v>19330051920246</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -1291,13 +1285,13 @@
         <v>33</v>
       </c>
       <c r="D8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E8" t="s">
         <v>8</v>
       </c>
       <c r="F8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -1305,7 +1299,7 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>19330051920246</v>
+        <v>19330051920257</v>
       </c>
       <c r="B9" t="s">
         <v>27</v>
@@ -1314,7 +1308,7 @@
         <v>34</v>
       </c>
       <c r="D9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E9" t="s">
         <v>8</v>
@@ -1328,7 +1322,7 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>19330051920257</v>
+        <v>19330051920266</v>
       </c>
       <c r="B10" t="s">
         <v>28</v>
@@ -1337,7 +1331,7 @@
         <v>35</v>
       </c>
       <c r="D10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E10" t="s">
         <v>8</v>
@@ -1346,29 +1340,6 @@
         <v>14</v>
       </c>
       <c r="G10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11">
-        <v>19330051920266</v>
-      </c>
-      <c r="B11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" t="s">
-        <v>46</v>
-      </c>
-      <c r="E11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11">
         <v>1</v>
       </c>
     </row>

--- a/docentes/González Sánchez Rene Aurelio - Estadisticos 20202.xlsx
+++ b/docentes/González Sánchez Rene Aurelio - Estadisticos 20202.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="32">
   <si>
     <t>Mat</t>
   </si>
@@ -85,73 +85,34 @@
     <t>PALACIOS</t>
   </si>
   <si>
-    <t>CRUZ</t>
-  </si>
-  <si>
     <t>GONZALEZ</t>
   </si>
   <si>
-    <t>MEJIA</t>
-  </si>
-  <si>
     <t>SARMIENTO</t>
   </si>
   <si>
-    <t>ALCANTARA</t>
+    <t>MORALES</t>
+  </si>
+  <si>
+    <t>ANTEMATE</t>
   </si>
   <si>
     <t>HERNANDEZ</t>
   </si>
   <si>
-    <t>MIXCOHUA</t>
-  </si>
-  <si>
-    <t>MORALES</t>
-  </si>
-  <si>
-    <t>PALMA</t>
-  </si>
-  <si>
     <t>SERRANO</t>
   </si>
   <si>
-    <t>ANTEMATE</t>
-  </si>
-  <si>
-    <t>LEYVA</t>
-  </si>
-  <si>
-    <t>GALEOTE</t>
-  </si>
-  <si>
-    <t>IXMATLAHUA</t>
-  </si>
-  <si>
     <t>CATHERIN DALAY</t>
   </si>
   <si>
-    <t>VALERIA</t>
+    <t>AXEL MIGUEL</t>
+  </si>
+  <si>
+    <t>ROMARIO ALDAIR</t>
   </si>
   <si>
     <t>CRISTIAN</t>
-  </si>
-  <si>
-    <t>JESUS ALEXIS</t>
-  </si>
-  <si>
-    <t>AXEL MIGUEL</t>
-  </si>
-  <si>
-    <t>ROMARIO ALDAIR</t>
-  </si>
-  <si>
-    <t>MOISES EFRAIN</t>
-  </si>
-  <si>
-    <t>ALEXIS</t>
-  </si>
-  <si>
-    <t>VALENTIN</t>
   </si>
 </sst>
 </file>
@@ -685,19 +646,19 @@
         <v>34</v>
       </c>
       <c r="D7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E7">
         <v>5</v>
       </c>
       <c r="F7">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="G7">
-        <v>55.88</v>
+        <v>85.29000000000001</v>
       </c>
       <c r="H7">
-        <v>7.5</v>
+        <v>7.1</v>
       </c>
     </row>
   </sheetData>
@@ -883,19 +844,19 @@
         <v>34</v>
       </c>
       <c r="D7">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="G7">
-        <v>52.94</v>
+        <v>94.12</v>
       </c>
       <c r="H7">
-        <v>7.5</v>
+        <v>7.1</v>
       </c>
     </row>
   </sheetData>
@@ -1058,16 +1019,16 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G6">
-        <v>90.91</v>
+        <v>100</v>
       </c>
       <c r="H6">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1081,19 +1042,19 @@
         <v>34</v>
       </c>
       <c r="D7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="G7">
-        <v>64.70999999999999</v>
+        <v>100</v>
       </c>
       <c r="H7">
-        <v>7.9</v>
+        <v>7.4</v>
       </c>
     </row>
   </sheetData>
@@ -1103,7 +1064,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1144,10 +1105,10 @@
         <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
@@ -1161,22 +1122,22 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>19330051920251</v>
+        <v>19330051920101</v>
       </c>
       <c r="B3" t="s">
         <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -1184,22 +1145,22 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>19330051920433</v>
+        <v>19330051920118</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="E4" t="s">
         <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -1207,16 +1168,16 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>19330051920264</v>
+        <v>19330051920433</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
@@ -1225,121 +1186,6 @@
         <v>14</v>
       </c>
       <c r="G5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6">
-        <v>19330051920101</v>
-      </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7">
-        <v>19330051920118</v>
-      </c>
-      <c r="B7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" t="s">
-        <v>41</v>
-      </c>
-      <c r="E7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8">
-        <v>19330051920246</v>
-      </c>
-      <c r="B8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" t="s">
-        <v>42</v>
-      </c>
-      <c r="E8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9">
-        <v>19330051920257</v>
-      </c>
-      <c r="B9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" t="s">
-        <v>43</v>
-      </c>
-      <c r="E9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10">
-        <v>19330051920266</v>
-      </c>
-      <c r="B10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" t="s">
-        <v>44</v>
-      </c>
-      <c r="E10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10">
         <v>1</v>
       </c>
     </row>
